--- a/output/google_maps_data_Kantor_Pemerintahan_Gunungkidul.xlsx
+++ b/output/google_maps_data_Kantor_Pemerintahan_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -503,25 +498,24 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>-7.964048</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.964048</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.601268</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Bupati+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3438742361b:0x59e3e760c949edf7!8m2!3d-7.964048!4d110.601268!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F12hpjr3vk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Bupati+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3438742361b:0x59e3e760c949edf7!8m2!3d-7.964048!4d110.601268!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F12hpjr3vk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -548,25 +542,24 @@
           <t>(0274) 391287</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>-7.961801</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.961801</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.600544</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Kependudukan+Dan+Pencatatan+Sipil+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342fa428975:0xef7d9a985b949b04!8m2!3d-7.9618007!4d110.6005437!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEPcmVnaXN0cnlfb2ZmaWNl4AEA!16s%2Fg%2F1pv0bctjf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Kependudukan+Dan+Pencatatan+Sipil+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342fa428975:0xef7d9a985b949b04!8m2!3d-7.9618007!4d110.6005437!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEPcmVnaXN0cnlfb2ZmaWNl4AEA!16s%2Fg%2F1pv0bctjf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -589,25 +582,24 @@
           <t>(0274) 391048</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>-7.952374</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.952374</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.587718</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pertanahan+Dan+Tata+Ruang+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3594ca91e0d:0xf9d96279c53a819b!8m2!3d-7.9523741!4d110.5877175!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c6v66y9d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pertanahan+Dan+Tata+Ruang+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3594ca91e0d:0xf9d96279c53a819b!8m2!3d-7.9523741!4d110.5877175!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c6v66y9d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -634,25 +626,24 @@
           <t>(0274) 391942</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.961879</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.961879</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.600856</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Penanaman+Modal+dan+Pelayanan+Terpadu+Satu+Pintu+(+DPMPTSP+)+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3444ca72631:0xb104709a5322f518!8m2!3d-7.9618787!4d110.6008555!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11gbwyj44d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Penanaman+Modal+dan+Pelayanan+Terpadu+Satu+Pintu+(+DPMPTSP+)+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3444ca72631:0xb104709a5322f518!8m2!3d-7.9618787!4d110.6008555!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11gbwyj44d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -675,25 +666,24 @@
           <t>0898-9293-008</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.9</v>
+        <v>-7.963986</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.963986</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.601788</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Layanan+Informasi+Publik+Pemerintah+Kabupaten+Gunungkidul+(PPID)/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb39ffcc44e43:0x7398cb6f74efea7!8m2!3d-7.9639865!4d110.6017883!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11lh53ljwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Layanan+Informasi+Publik+Pemerintah+Kabupaten+Gunungkidul+(PPID)/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb39ffcc44e43:0x7398cb6f74efea7!8m2!3d-7.9639865!4d110.6017883!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11lh53ljwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -716,25 +706,24 @@
           <t>(0274) 391191</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>-7.969252</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.969252</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.611108</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35e9c36cf6d:0x28ff8df8d549b0e!8m2!3d-7.9692522!4d110.6111076!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c1plqvdh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35e9c36cf6d:0x28ff8df8d549b0e!8m2!3d-7.9692522!4d110.6111076!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c1plqvdh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -761,25 +750,24 @@
           <t>(0274) 391393</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>-7.968985</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.968985</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.595402</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Kepegawaian+Pendidikan+dan+Pelatihan+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34033de6555:0x578b6bfced7e7e97!8m2!3d-7.9689851!4d110.5954016!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1ptyn_81n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Kepegawaian+Pendidikan+dan+Pelatihan+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34033de6555:0x578b6bfced7e7e97!8m2!3d-7.9689851!4d110.5954016!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1ptyn_81n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -802,25 +790,24 @@
           <t>(0274) 391083</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>-7.964414</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.964414</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.602069</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Keuangan+dan+Aset+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343807811b5:0xa81e81d685adaf49!8m2!3d-7.9644142!4d110.6020688!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c6yzlrkk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Keuangan+dan+Aset+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343807811b5:0xa81e81d685adaf49!8m2!3d-7.9644142!4d110.6020688!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c6yzlrkk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -839,25 +826,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F10" t="n">
-        <v>3.7</v>
+        <v>-7.959429</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.959429</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.594177</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Koperasi,+Usaha+Kecil+dan+Menengah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3447fba0933:0x8d08276b86ed4969!8m2!3d-7.9594291!4d110.5941768!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dxhzsjy4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Koperasi,+Usaha+Kecil+dan+Menengah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3447fba0933:0x8d08276b86ed4969!8m2!3d-7.9594291!4d110.5941768!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dxhzsjy4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -880,25 +866,24 @@
           <t>(0274) 391411</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.963498</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.963498</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.60196</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DINAS+PEMBERDAYAAN+MASYARAKAT+DAN+KALURAHAN,+PENGENDALIAN+PENDUDUK+DAN+KELUARGA+BERENCANA/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3880a3f8789:0x80c777bd3463883a!8m2!3d-7.963498!4d110.6019596!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11t9j_nxf7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DINAS+PEMBERDAYAAN+MASYARAKAT+DAN+KALURAHAN,+PENGENDALIAN+PENDUDUK+DAN+KELUARGA+BERENCANA/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3880a3f8789:0x80c777bd3463883a!8m2!3d-7.963498!4d110.6019596!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11t9j_nxf7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -921,25 +906,24 @@
           <t>(0274) 394226</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F12" t="n">
-        <v>3.9</v>
+        <v>-7.954609</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.954609</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.589625</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Sosial,+Pemberdayaan+Perempuan+dan+Perlindungan+Anak+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3342a47f97b:0xd2109eb1734aa070!8m2!3d-7.954609!4d110.5896251!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEdZGVwYXJ0bWVudF9vZl9zb2NpYWxfc2VydmljZXPgAQA!16s%2Fg%2F1ptxpqx90?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Sosial,+Pemberdayaan+Perempuan+dan+Perlindungan+Anak+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3342a47f97b:0xd2109eb1734aa070!8m2!3d-7.954609!4d110.5896251!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEdZGVwYXJ0bWVudF9vZl9zb2NpYWxfc2VydmljZXPgAQA!16s%2Fg%2F1ptxpqx90?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -962,25 +946,24 @@
           <t>(0274) 391797</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>3.7</v>
+        <v>-7.939882</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.939882</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.59443</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Perhubungan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb36eaf16127b:0xbafbba85c64d7121!8m2!3d-7.9398823!4d110.5944303!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1pzxhlbyc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Perhubungan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb36eaf16127b:0xbafbba85c64d7121!8m2!3d-7.9398823!4d110.5944303!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1pzxhlbyc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1003,25 +986,24 @@
           <t>(0274) 391761</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>-7.965534</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.965534</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.601434</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BAPPEDA+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3439c894df3:0x72831c334fb077bd!8m2!3d-7.9655339!4d110.6014342!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F125_skqkg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BAPPEDA+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3439c894df3:0x72831c334fb077bd!8m2!3d-7.9655339!4d110.6014342!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F125_skqkg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1040,25 +1022,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.965446</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.965446</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.59988</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Wonosari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343d0d115d3:0x7a5a60b843ee74f9!8m2!3d-7.9654458!4d110.5998802!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEaZGlzdHJpY3RfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzwlxszt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Wonosari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343d0d115d3:0x7a5a60b843ee74f9!8m2!3d-7.9654458!4d110.5998802!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEaZGlzdHJpY3RfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzwlxszt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1081,25 +1062,24 @@
           <t>(0274) 391150</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.959456</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.959456</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.594134</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Perdagangan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342fb5c0329:0x299d4cb93e60f609!8m2!3d-7.9594559!4d110.5941335!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1pzr961q8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Perdagangan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342fb5c0329:0x299d4cb93e60f609!8m2!3d-7.9594559!4d110.5941335!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1pzr961q8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1118,25 +1098,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>-7.964311</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.964311</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.601588</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekretariat+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3eb87764a4f:0x2a9dfa6377bec091!8m2!3d-7.9643111!4d110.6015878!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11gmz89q0f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekretariat+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3eb87764a4f:0x2a9dfa6377bec091!8m2!3d-7.9643111!4d110.6015878!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11gmz89q0f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1159,25 +1138,24 @@
           <t>(0274) 391259</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>-7.964448</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.964448</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.601878</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Komunikasi+dan+Informatika+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb38b36b7d37b:0xebdbdc4f203855b2!8m2!3d-7.9644476!4d110.6018776!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11rzrv3xv5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Komunikasi+dan+Informatika+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb38b36b7d37b:0xebdbdc4f203855b2!8m2!3d-7.9644476!4d110.6018776!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11rzrv3xv5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1204,25 +1182,24 @@
           <t>(0274) 391305</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.1</v>
+        <v>-7.939916</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.939916</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.594019</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Pertanahan+Nasional+(+ATR%2FBPN+)+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb7e9d0b09f:0x56999ce35b3ff5e2!8m2!3d-7.9399165!4d110.5940191!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dx9b2x1w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Pertanahan+Nasional+(+ATR%2FBPN+)+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb7e9d0b09f:0x56999ce35b3ff5e2!8m2!3d-7.9399165!4d110.5940191!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dx9b2x1w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1245,25 +1222,24 @@
           <t>(0274) 391317</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>-7.962999</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.962999</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.602609</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pertanian+dan+Pangan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344896f2b41:0xdbc2009584ec0536!8m2!3d-7.9629995!4d110.6026094!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1thzr6c4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pertanian+dan+Pangan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344896f2b41:0xdbc2009584ec0536!8m2!3d-7.9629995!4d110.6026094!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1thzr6c4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1286,25 +1262,24 @@
           <t>0857-7078-5054</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.1</v>
+        <v>-7.976018</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.976018</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.610696</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Baleharjo/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3641973e5d9:0xfa92aca6c926cf17!8m2!3d-7.9760181!4d110.6106955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c1s5z8y7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Baleharjo/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3641973e5d9:0xfa92aca6c926cf17!8m2!3d-7.9760181!4d110.6106955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c1s5z8y7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1327,25 +1302,24 @@
           <t>(0274) 7103953</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-7.85179</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.85179</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.489564</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Pemuda+dan+Olahraga/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4de6304f31cf:0x49d1594d76ea197!8m2!3d-7.8517899!4d110.4895641!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gh35x6bk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Pemuda+dan+Olahraga/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4de6304f31cf:0x49d1594d76ea197!8m2!3d-7.8517899!4d110.4895641!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gh35x6bk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1368,25 +1342,24 @@
           <t>(0274) 391086</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>-7.945605</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.945605</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.586818</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Kebudayaan+Kabupaten+Gunungkidul+Prov.+D.I.Yogyakarta/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343305201e3:0xfd533329d627fccf!8m2!3d-7.9456048!4d110.5868182!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgESY2l0eV9jbGVya3Nfb2ZmaWNl4AEA!16s%2Fg%2F11g6bh1hz8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Kebudayaan+Kabupaten+Gunungkidul+Prov.+D.I.Yogyakarta/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343305201e3:0xfd533329d627fccf!8m2!3d-7.9456048!4d110.5868182!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgESY2l0eV9jbGVya3Nfb2ZmaWNl4AEA!16s%2Fg%2F11g6bh1hz8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1405,25 +1378,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>-7.965146</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.965146</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.601766</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Dinas+Bupati+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3439c5665d1:0xd5e4b92a70b0ac20!8m2!3d-7.9651458!4d110.6017657!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11g9jnt06y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Dinas+Bupati+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3439c5665d1:0xd5e4b92a70b0ac20!8m2!3d-7.9651458!4d110.6017657!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11g9jnt06y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1442,25 +1414,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>-7.972256</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.972256</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.564039</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Pemerintah+Kalurahan+Pulutan/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb2e0b0a38bf5:0xc83347d8c3e86356!8m2!3d-7.9722559!4d110.5640392!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cn7mbt8w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Pemerintah+Kalurahan+Pulutan/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb2e0b0a38bf5:0xc83347d8c3e86356!8m2!3d-7.9722559!4d110.5640392!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cn7mbt8w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1484,22 +1455,21 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-7.924916</v>
+      </c>
       <c r="G26" t="n">
-        <v>-7.924916</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.594608</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Sementara+BPS+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d003c6f66a3:0x7fe5dcefe3e8244a!8m2!3d-7.9249161!4d110.5946083!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11vsc_my5v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1522,25 +1492,24 @@
           <t>(0274) 391005</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.2</v>
+        <v>-7.964777</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.964777</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.599242</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pekerjaan+Umum+Perumahan+Rakyat+Dan+Kawasan+Permukiman+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a6ab0e0774ee1:0xf3a5c3c430865244!8m2!3d-7.9647766!4d110.5992419!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONE9FMHljVEZuUlJBQuABAPoBBAgAEBM!16s%2Fg%2F1pzqv5m95?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pekerjaan+Umum+Perumahan+Rakyat+Dan+Kawasan+Permukiman+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a6ab0e0774ee1:0xf3a5c3c430865244!8m2!3d-7.9647766!4d110.5992419!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONE9FMHljVEZuUlJBQuABAPoBBAgAEBM!16s%2Fg%2F1pzqv5m95?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1567,25 +1536,24 @@
           <t>(0274) 391503</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F28" t="n">
-        <v>3.9</v>
+        <v>-7.963965</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.963965</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.603469</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Kesehatan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34352026995:0xf28b23988ae50b19!8m2!3d-7.9639648!4d110.6034688!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARhwdWJsaWNfaGVhbHRoX2RlcGFydG1lbnSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhhSFpVUzBGUkVBReABAPoBBQj0AhAv!16s%2Fg%2F1pzqs2ck2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Kesehatan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34352026995:0xf28b23988ae50b19!8m2!3d-7.9639648!4d110.6034688!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARhwdWJsaWNfaGVhbHRoX2RlcGFydG1lbnSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhhSFpVUzBGUkVBReABAPoBBQj0AhAv!16s%2Fg%2F1pzqs2ck2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1608,25 +1576,24 @@
           <t>(0274) 391440</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>-7.948115</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.948115</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.58391</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Lingkungan+Hidup+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3403385de8b:0xb8108347744607ca!8m2!3d-7.9481153!4d110.5839099!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaGVDMTVPWEpuUlJBQuABAPoBBAgAECE!16s%2Fg%2F11dxlf_b8n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1645,25 +1612,24 @@
           <t>(0274) 3913930</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>-7.964224</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.964224</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.601142</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Sekretaris+Daerah+Dan+Badan+Kepegawaian+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342f9602aa3:0x288c8797ecb16931!8m2!3d-7.9642241!4d110.6011415!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11b6dqbc4t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1678,25 +1644,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.1</v>
+        <v>-7.887512</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.887512</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.61862</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Nglipar+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4b8a8c375a99:0x3700d932a3f32837!8m2!3d-7.887512!4d110.6186203!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c2qlt9gv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Nglipar+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4b8a8c375a99:0x3700d932a3f32837!8m2!3d-7.887512!4d110.6186203!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c2qlt9gv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1715,25 +1680,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.5</v>
+        <v>-7.871624</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.871624</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.560896</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kalurahan+Nglegi,+Patuk,+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d6e5a89408b:0xb6d507672d8d4ebd!8m2!3d-7.8716241!4d110.5608955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeE1WcGxkelZuUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11j8lvhsmv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kalurahan+Nglegi,+Patuk,+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d6e5a89408b:0xb6d507672d8d4ebd!8m2!3d-7.8716241!4d110.5608955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeE1WcGxkelZuUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11j8lvhsmv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1752,25 +1716,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.5</v>
+        <v>-7.953722</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.953722</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.528596</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Dengok/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb2acbc2cb25f:0x46b0ee5c32ca276!8m2!3d-7.9537222!4d110.5285955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSTGRVdERUMnQzUlJBQuABAPoBBAgAECs!16s%2Fg%2F11c46b6x2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Dengok/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb2acbc2cb25f:0x46b0ee5c32ca276!8m2!3d-7.9537222!4d110.5285955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSTGRVdERUMnQzUlJBQuABAPoBBAgAECs!16s%2Fg%2F11c46b6x2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1793,25 +1756,24 @@
           <t>(0274) 391031</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>-7.954412</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.954412</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.590063</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pariwisata+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb335d4796d7f:0x580a4eafcc198a09!8m2!3d-7.9544122!4d110.5900627!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS05uRmhPV3gzUlJBQuABAPoBBAgAEBk!16s%2Fg%2F11c0xm9t6f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pariwisata+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb335d4796d7f:0x580a4eafcc198a09!8m2!3d-7.9544122!4d110.5900627!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS05uRmhPV3gzUlJBQuABAPoBBAgAEBk!16s%2Fg%2F11c0xm9t6f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1831,22 +1793,21 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-7.964881</v>
+      </c>
       <c r="G35" t="n">
-        <v>-7.964881</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.604519</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DINAS+KEPEMUDAAN+DAN+OLAHRAGA+(DISPORA)+KABUPATEN+GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3706f4d15c5:0x23627d8936f4ad80!8m2!3d-7.9648812!4d110.6045194!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11ts2g7904?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1861,25 +1822,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.2</v>
+        <v>-7.940281</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.940281</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.597112</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Piyaman/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb7a08a5fef:0x64b19e098ac4c0d!8m2!3d-7.9402809!4d110.5971117!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11dyzc30k1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Piyaman/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb7a08a5fef:0x64b19e098ac4c0d!8m2!3d-7.9402809!4d110.5971117!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11dyzc30k1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1902,25 +1862,24 @@
           <t>(0274) 391030</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.8</v>
+        <v>-7.966129</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.966129</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.600457</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+DPRD+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3469243b847:0x5e1d1f02ab5d3fcf!8m2!3d-7.9661291!4d110.6004569!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySAQdjb3VuY2lsmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyTVRkNlRGQkJFQUXgAQD6AQQIOBA-!16s%2Fg%2F11b6dq72js?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+DPRD+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3469243b847:0x5e1d1f02ab5d3fcf!8m2!3d-7.9661291!4d110.6004569!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySAQdjb3VuY2lsmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyTVRkNlRGQkJFQUXgAQD6AQQIOBA-!16s%2Fg%2F11b6dq72js?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1943,25 +1902,24 @@
           <t>(0274) 391313</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.5</v>
+        <v>-7.964935</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.964935</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.599866</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kementerian+Agama+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343f1da4281:0x2a4cb21d29415480!8m2!3d-7.9649349!4d110.5998661!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWU1qbEhUMVZuRUFF4AEA-gEECAAQHg!16s%2Fg%2F1pzwl8hcc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kementerian+Agama+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343f1da4281:0x2a4cb21d29415480!8m2!3d-7.9649349!4d110.5998661!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWU1qbEhUMVZuRUFF4AEA-gEECAAQHg!16s%2Fg%2F1pzwl8hcc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1980,25 +1938,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F39" t="n">
-        <v>3.8</v>
+        <v>-7.964151</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.964151</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.603726</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Dinas+Wakil+Bupati+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344a0a8d7ff:0xc424d71ee661b609!8m2!3d-7.9641507!4d110.6037258!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11bc7myftd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Dinas+Wakil+Bupati+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344a0a8d7ff:0xc424d71ee661b609!8m2!3d-7.9641507!4d110.6037258!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11bc7myftd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2025,25 +1982,24 @@
           <t>(0274) 391086</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.3</v>
+        <v>-7.965767</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.965767</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.605061</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Kebudayaan+Gunungkidul./@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343374a3aa1:0xc334a66ec4ff328a!8m2!3d-7.965767!4d110.6050614!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARhjb3VudHlfZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRhbk5YY25sM1JSQULgAQD6AQQISRAu!16s%2Fg%2F11g6xl673h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Kebudayaan+Gunungkidul./@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343374a3aa1:0xc334a66ec4ff328a!8m2!3d-7.965767!4d110.6050614!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARhjb3VudHlfZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRhbk5YY25sM1JSQULgAQD6AQQISRAu!16s%2Fg%2F11g6xl673h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2062,25 +2018,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>-7.963595</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.963595</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.601926</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DP3AKBPMK+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3a580c839d7:0x9bc4ca24a6a3827d!8m2!3d-7.963595!4d110.601926!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMU0zSXRkM0ZCUlJBQuABAPoBBAgAEBU!16s%2Fg%2F11hy__wjfs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DP3AKBPMK+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3a580c839d7:0x9bc4ca24a6a3827d!8m2!3d-7.963595!4d110.601926!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMU0zSXRkM0ZCUlJBQuABAPoBBAgAEBU!16s%2Fg%2F11hy__wjfs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2100,22 +2055,21 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-7.965094</v>
+      </c>
       <c r="G42" t="n">
-        <v>-7.965094</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.599645</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Kesatuan+Bangsa+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343e5397bbb:0x36eab611c798edcd!8m2!3d-7.9650941!4d110.5996445!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEXbG9jYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c6qdx03r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2134,25 +2088,24 @@
           <t>(0274) 391316</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.7</v>
+        <v>-7.966648</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.966648</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.599842</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Kelautan+Dan+Perikanan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343ce093ed7:0xb18b795a51553b1d!8m2!3d-7.9666478!4d110.5998423!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1pzpz4ny9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2168,22 +2121,21 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-7.966268</v>
+      </c>
       <c r="G44" t="n">
-        <v>-7.966268</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.604895</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PKBI+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35ccd6fe699:0xc97bfeeb8556a7e0!8m2!3d-7.9662679!4d110.6048954!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEZZmVkZXJhbF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11cs7fjpxj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2198,25 +2150,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>-7.967941</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.967941</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.598</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Panwaslu+Kab.+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3419120b80b:0x7f5ab94536f25c6e!8m2!3d-7.9679411!4d110.5980004!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11f5bnnyyf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Panwaslu+Kab.+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3419120b80b:0x7f5ab94536f25c6e!8m2!3d-7.9679411!4d110.5980004!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11f5bnnyyf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2243,25 +2194,24 @@
           <t>(0274) 2901553</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.3</v>
+        <v>-7.945826</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.945826</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.581699</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Balai+Dikmen+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d5046a15835:0x63931a13c4496187!8m2!3d-7.9458256!4d110.5816985!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gwnf5t4d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Balai+Dikmen+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d5046a15835:0x63931a13c4496187!8m2!3d-7.9458256!4d110.5816985!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gwnf5t4d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2284,25 +2234,24 @@
           <t>(0274) 391155</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.9671</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.9671</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.601102</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Perindagkop/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3424dafdd6d:0x90c6b5f1a703b522!8m2!3d-7.9670999!4d110.6011019!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzy05n45?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2322,22 +2271,21 @@
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>-7.962214</v>
+      </c>
       <c r="G48" t="n">
-        <v>-7.962214</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.60167</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pusat+Pelayanan+Terpadu+Perlindungan+Perempuan+dan+Anak+Kabupeten+Gunungkidul+(+P2TP2A+)/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3a3b3925d03:0x8029a340d699648b!8m2!3d-7.962214!4d110.6016695!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11jly69bgn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2356,25 +2304,24 @@
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.7</v>
+        <v>-7.964311</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.964311</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.601588</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BIDANG+UMKM+KAB.GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3c6fc598e8f:0xb539e6942ef2ecf2!8m2!3d-7.9643111!4d110.6015878!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgETdW5lbXBsb3ltZW50X29mZmljZeABAA!16s%2Fg%2F11t7mwyv56?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BIDANG+UMKM+KAB.GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3c6fc598e8f:0xb539e6942ef2ecf2!8m2!3d-7.9643111!4d110.6015878!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgETdW5lbXBsb3ltZW50X29mZmljZeABAA!16s%2Fg%2F11t7mwyv56?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2393,25 +2340,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-7.963449</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.963449</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.602449</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bidang+Tanaman+Pangan+dan+Hortikultura+DPKP+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3448da1e087:0x5bbe455a44244072!8m2!3d-7.9634492!4d110.6024488!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c5s9nkp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bidang+Tanaman+Pangan+dan+Hortikultura+DPKP+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3448da1e087:0x5bbe455a44244072!8m2!3d-7.9634492!4d110.6024488!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c5s9nkp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -2430,25 +2376,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.3</v>
+        <v>-7.982178</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.982178</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.714953</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Ponjong/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bca8057720117:0x8fc80102b3c5099f!8m2!3d-7.9821781!4d110.7149527!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNU1VdE1RMnhSUlJBQuABAPoBBAgAEBE!16s%2Fg%2F11c3nzn108?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Ponjong/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bca8057720117:0x8fc80102b3c5099f!8m2!3d-7.9821781!4d110.7149527!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNU1VdE1RMnhSUlJBQuABAPoBBAgAEBE!16s%2Fg%2F11c3nzn108?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2467,25 +2412,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.5</v>
+        <v>-7.937825</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.937825</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.574599</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Logandeng/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3366f0a5725:0x178b98cffb85dec5!8m2!3d-7.9378248!4d110.5745989!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzv3k80s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Logandeng/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3366f0a5725:0x178b98cffb85dec5!8m2!3d-7.9378248!4d110.5745989!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzv3k80s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2504,25 +2448,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>-7.916467</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.916467</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.582866</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Balai+Dusun+Ngijorejo+Gari+Wonosari+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d7a55afaeb9:0xf11de25d3ae06f28!8m2!3d-7.9164671!4d110.5828662!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11jjm1vjb8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Balai+Dusun+Ngijorejo+Gari+Wonosari+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d7a55afaeb9:0xf11de25d3ae06f28!8m2!3d-7.9164671!4d110.5828662!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11jjm1vjb8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2546,22 +2489,21 @@
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>-7.971505</v>
+      </c>
       <c r="G54" t="n">
-        <v>-7.971505</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.581423</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KANTOR+BPBD+WONOSARI/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb31ea1d1fca7:0x76bc2a7ac154bd3c!8m2!3d-7.9715046!4d110.5814232!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11ry5gwn19?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2581,22 +2523,21 @@
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>-7.951853</v>
+      </c>
       <c r="G55" t="n">
-        <v>-7.951853</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.61492</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Unit+Pelaksana+Teknis+Dinas+Balai+Pembenihan+%26+Pembibitan+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb355b91e4115:0x61280fefb024f35a!8m2!3d-7.9518533!4d110.6149203!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c716s5m5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2611,25 +2552,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.8</v>
+        <v>-7.954256</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.954256</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.589902</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Peternakan+dan+Kesehatan+Hewan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3fedc7576bd:0x8393ace191b6bd29!8m2!3d-7.9542557!4d110.5899024!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYU1FdzNSbTluUlJBQuABAPoBBAgAEEU!16s%2Fg%2F11s42vpqk3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Peternakan+dan+Kesehatan+Hewan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3fedc7576bd:0x8393ace191b6bd29!8m2!3d-7.9542557!4d110.5899024!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYU1FdzNSbTluUlJBQuABAPoBBAgAEEU!16s%2Fg%2F11s42vpqk3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2656,25 +2596,24 @@
           <t>(0274) 391539</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.1</v>
+        <v>-7.962577</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.962577</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.602754</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Inspektorat+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344ee1c585f:0x8ae317d0129db229!8m2!3d-7.9625771!4d110.6027538!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dxmkz348?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Inspektorat+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344ee1c585f:0x8ae317d0129db229!8m2!3d-7.9625771!4d110.6027538!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dxmkz348?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2701,25 +2640,24 @@
           <t>(0274) 391537</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.8</v>
+        <v>-7.965516</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.965516</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.600099</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Kesatuan+Bangsa+Dan+Politik+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343e983a2f3:0x1511da484bdcf366!8m2!3d-7.9655164!4d110.6000988!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObGR6bG1WakozUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11c6y_0nlz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Kesatuan+Bangsa+Dan+Politik+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343e983a2f3:0x1511da484bdcf366!8m2!3d-7.9655164!4d110.6000988!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObGR6bG1WakozUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11c6y_0nlz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2742,25 +2680,24 @@
           <t>(0274) 391473</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>-7.964028</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.964028</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.608292</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kelurahan+Wonosari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35c7f04160d:0x34f1e9edb6fa6222!8m2!3d-7.9640279!4d110.608292!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bxg1m8tc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kelurahan+Wonosari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35c7f04160d:0x34f1e9edb6fa6222!8m2!3d-7.9640279!4d110.608292!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bxg1m8tc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2787,25 +2724,24 @@
           <t>(0274) 391083</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.964212</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.964212</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.601884</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/LPSE+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342ffee1649:0xb57850125c58f8b7!8m2!3d-7.9642122!4d110.6018838!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWNtVkVORkYzRUFF4AEA-gEECAAQJw!16s%2Fg%2F11bc7qnzqd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/LPSE+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342ffee1649:0xb57850125c58f8b7!8m2!3d-7.9642122!4d110.6018838!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWNtVkVORkYzRUFF4AEA-gEECAAQJw!16s%2Fg%2F11bc7qnzqd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2824,25 +2760,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.9</v>
+        <v>-7.878135</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.878135</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.598586</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Pengkol/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e77621257f6bf7b:0x77339564ef5db48a!8m2!3d-7.8781353!4d110.5985855!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bwyyfnnw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Pengkol/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e77621257f6bf7b:0x77339564ef5db48a!8m2!3d-7.8781353!4d110.5985855!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bwyyfnnw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2869,25 +2804,24 @@
           <t>(0274) 391210</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.3</v>
+        <v>-7.940092</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.940092</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.593457</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KPU+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb73733cc35:0xcc1ec23fe138f384!8m2!3d-7.9400924!4d110.5934568!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARl2b3Rlcl9yZWdpc3RyYXRpb25fb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJhTlZwcWJVdFJFQUXgAQD6AQQIABAj!16s%2Fg%2F11bc7l8xfn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KPU+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb73733cc35:0xcc1ec23fe138f384!8m2!3d-7.9400924!4d110.5934568!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARl2b3Rlcl9yZWdpc3RyYXRpb25fb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJhTlZwcWJVdFJFQUXgAQD6AQQIABAj!16s%2Fg%2F11bc7l8xfn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2906,25 +2840,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>-7.967252</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.967252</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.620312</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Selang/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb4a1c992da71:0x12ed3e980f762654!8m2!3d-7.9672523!4d110.6203117!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11fx919p28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Selang/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb4a1c992da71:0x12ed3e980f762654!8m2!3d-7.9672523!4d110.6203117!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11fx919p28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2947,25 +2880,24 @@
           <t>(0274) 7497991</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.5</v>
+        <v>-8.068721999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.068721999999999</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.589482</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Tanjungsari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb1046c606735:0xb35ab12b548bd072!8m2!3d-8.0687217!4d110.5894823!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGRuRXRVREJCUlJBQuABAPoBBAgAEDI!16s%2Fg%2F1pzpzxb9t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Tanjungsari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb1046c606735:0xb35ab12b548bd072!8m2!3d-8.0687217!4d110.5894823!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGRuRXRVREJCUlJBQuABAPoBBAgAEDI!16s%2Fg%2F1pzpzxb9t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2988,25 +2920,24 @@
           <t>(0274) 7133273</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F65" t="n">
-        <v>3.6</v>
+        <v>-8.091357</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.091357</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.627342</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Tepus/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb0b54c62dbed:0x1917bc17c61f5c5e!8m2!3d-8.0913569!4d110.6273424!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE1XRTNURVpCRUFF4AEA-gEFCKICEEQ!16s%2Fg%2F1pzv3kkwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Tepus/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb0b54c62dbed:0x1917bc17c61f5c5e!8m2!3d-8.0913569!4d110.6273424!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE1XRTNURVpCRUFF4AEA-gEFCKICEEQ!16s%2Fg%2F1pzv3kkwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3030,22 +2961,21 @@
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>-7.961022</v>
+      </c>
       <c r="G66" t="n">
-        <v>-7.961022</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.593962</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KANTOR+PENDAMPING+DESA+GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3479251891f:0x8e32e968fe5ca8e0!8m2!3d-7.9610216!4d110.5939616!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cjtjx9fl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3061,22 +2991,21 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>-7.965392</v>
+      </c>
       <c r="G67" t="n">
-        <v>-7.965392</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.604613</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Dinas+Ketua+DPRD+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3434a0327e9:0x91bd1a85f1918e69!8m2!3d-7.9653922!4d110.6046129!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11g6vnv5vz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3095,25 +3024,24 @@
           <t>(0274) 7489296</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.3</v>
+        <v>-8.002734999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.002734999999999</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.508526</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Paliyan/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb27713c3d25d:0xfa826fb275f92e8a!8m2!3d-8.0027352!4d110.5085264!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2QwMUxibk5CUlJBQuABAPoBBAgAEEU!16s%2Fg%2F1pzr2k40x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Paliyan/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb27713c3d25d:0xfa826fb275f92e8a!8m2!3d-8.0027352!4d110.5085264!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2QwMUxibk5CUlJBQuABAPoBBAgAEEU!16s%2Fg%2F1pzr2k40x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3137,22 +3065,21 @@
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>-7.971432</v>
+      </c>
       <c r="G69" t="n">
-        <v>-7.971432</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.580585</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PSC+119+GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb30032a5f80f:0x33f3bee66bcf1dfe!8m2!3d-7.9714317!4d110.580585!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11vzvnqqvd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3175,25 +3102,24 @@
           <t>(0274) 392001</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.9</v>
+        <v>-7.975954</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.975954</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.599111</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BPJS+Kesehatan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34455d7bd7f:0xfadd54acf590c99f!8m2!3d-7.9759545!4d110.5991108!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARZzb2NpYWxfc2VjdXJpdHlfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5NTnpjeU9ITlJSUkFC4AEA-gEECB8QOg!16s%2Fg%2F1pzrvpffy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BPJS+Kesehatan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34455d7bd7f:0xfadd54acf590c99f!8m2!3d-7.9759545!4d110.5991108!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARZzb2NpYWxfc2VjdXJpdHlfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5NTnpjeU9ITlJSUkFC4AEA-gEECB8QOg!16s%2Fg%2F1pzrvpffy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -3217,22 +3143,21 @@
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>-7.943682</v>
+      </c>
       <c r="G71" t="n">
-        <v>-7.943682</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.580466</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Resort+Konservasi+Wilayah+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d79ff129f75:0xf1997b46473eae7d!8m2!3d-7.9436825!4d110.5804657!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11h2hhcl2w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3248,22 +3173,21 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>-7.962869</v>
+      </c>
       <c r="G72" t="n">
-        <v>-7.962869</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.602635</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Bidang+Peternakan+DPKP+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb325e3857a0b:0x565007fa3b08ebed!8m2!3d-7.9628689!4d110.6026352!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11t5t158d3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3282,25 +3206,24 @@
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.4</v>
+        <v>-7.972695</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.972695</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.610296</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35ecc8e69e9:0x4da5c54f4607bc3d!8m2!3d-7.9726951!4d110.6102959!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQmVrcHlSVlJCRUFF4AEA-gEECDwQPQ!16s%2Fg%2F1pzrk2_np?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35ecc8e69e9:0x4da5c54f4607bc3d!8m2!3d-7.9726951!4d110.6102959!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQmVrcHlSVlJCRUFF4AEA-gEECDwQPQ!16s%2Fg%2F1pzrk2_np?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>20 jam lalu</t>
         </is>
@@ -3320,22 +3243,21 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>-7.964758</v>
+      </c>
       <c r="G74" t="n">
-        <v>-7.964758</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.601667</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ruang+Rapat+V+Setda+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb36cb12281af:0xcf00fe3fe46cb51d!8m2!3d-7.9647584!4d110.6016672!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11lq75lkhq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3355,22 +3277,21 @@
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>-7.96481</v>
+      </c>
       <c r="G75" t="n">
-        <v>-7.96481</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.600074</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Unit+Metrologi+Legal+(UML)+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb339c42d2669:0xc7ce40dc9a5e740f!8m2!3d-7.9648096!4d110.6000738!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11s_bdb9nr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3389,25 +3310,24 @@
           <t>(0274) 391018</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.3</v>
+        <v>-7.952309</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.952309</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.676457</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Karangmojo/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3594ca91e0d:0xe4debf8f4a52dcda!8m2!3d-7.952309!4d110.6764571!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNGRuQXRUVUpuRUFF4AEA-gEECAAQMw!16s%2Fg%2F1pzppp7fl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Karangmojo/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3594ca91e0d:0xe4debf8f4a52dcda!8m2!3d-7.952309!4d110.6764571!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNGRuQXRUVUpuRUFF4AEA-gEECAAQMw!16s%2Fg%2F1pzppp7fl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3430,25 +3350,24 @@
           <t>(0274) 394091</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>-7.971514</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.971514</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.581393</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Penanggulangan+Bencana+Daerah+(+BPBD+)+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb38d309cba19:0xa8b3f2e95a957deb!8m2!3d-7.9715137!4d110.5813931!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRwdWJsaWNfc2FmZXR5X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReU9ITlBabk5uUlJBQuABAPoBBAgWEAw!16s%2Fg%2F11rmx00f8c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Penanggulangan+Bencana+Daerah+(+BPBD+)+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb38d309cba19:0xa8b3f2e95a957deb!8m2!3d-7.9715137!4d110.5813931!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRwdWJsaWNfc2FmZXR5X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReU9ITlBabk5uUlJBQuABAPoBBAgWEAw!16s%2Fg%2F11rmx00f8c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3468,22 +3387,21 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>-7.9598</v>
+      </c>
       <c r="G78" t="n">
-        <v>-7.9598</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.694028</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/UPT+Balai+Benih+Pertanian+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb560342f10a5:0x505b5cb9d04ea5c9!8m2!3d-7.9597998!4d110.6940277!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11t5kcjrjk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3499,22 +3417,21 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>-7.981395</v>
+      </c>
       <c r="G79" t="n">
-        <v>-7.981395</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.604944</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Tri+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3651d21f903:0xfea524b2b900a056!8m2!3d-7.9813947!4d110.6049443!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEQY29ycG9yYXRlX29mZmljZeABAA!16s%2Fg%2F11vb0rwlnc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
